--- a/Uebung 4_2_1.xlsx
+++ b/Uebung 4_2_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ostch-my.sharepoint.com/personal/marc_kressig_ost_ch/Documents/OST RJ/WING/WING - 4 Semester/MOSIM/Python Systemanalyse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5EE75B58-1AB9-45EB-9622-3D3BDACC1FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{335FE45B-3A8B-4CA4-BC6C-DD05DEF18093}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{5EE75B58-1AB9-45EB-9622-3D3BDACC1FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C28B5775-3C21-4540-B761-5D6A846D28BD}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{AD7F86BE-F812-4EFD-A693-883279CE17F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{AD7F86BE-F812-4EFD-A693-883279CE17F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten und Berechnung" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>t in sec</t>
   </si>
   <si>
     <t>dist in m</t>
+  </si>
+  <si>
+    <t>y_squared</t>
   </si>
 </sst>
 </file>
@@ -435,13 +438,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F465C3FF-A8FF-4256-9B6B-38E0912B4875}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="3"/>
+    <col min="1" max="2" width="9.109375" style="3"/>
+    <col min="3" max="3" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="3" customWidth="1"/>
     <col min="5" max="11" width="9.109375" style="2"/>
     <col min="12" max="12" width="18.44140625" style="2" customWidth="1"/>
@@ -456,6 +460,9 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
